--- a/Peaks-dataset-article/redes-ensemble-s/Teste04/content/results/metrics_18_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste04/content/results/metrics_18_9.xlsx
@@ -518,991 +518,991 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_24</t>
+          <t>model_18_9_13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9771508650490278</v>
+        <v>0.996649809983759</v>
       </c>
       <c r="C2" t="n">
-        <v>0.799437958336455</v>
+        <v>0.8105910779496054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.753937639281983</v>
+        <v>0.9775230904251906</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8334443642135727</v>
+        <v>0.9529020489516471</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8191601896909071</v>
+        <v>0.9798674193562366</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1527922706277433</v>
+        <v>0.02240273606481018</v>
       </c>
       <c r="H2" t="n">
-        <v>1.341159296107411</v>
+        <v>1.266578333898881</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2491460264955366</v>
+        <v>0.04026521851933219</v>
       </c>
       <c r="J2" t="n">
-        <v>0.697525914139896</v>
+        <v>0.07037271566007591</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4733359703177162</v>
+        <v>0.05531880981156571</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1767894851607273</v>
+        <v>0.6476684014224777</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3908865188616042</v>
+        <v>0.1496754357428439</v>
       </c>
       <c r="N2" t="n">
-        <v>1.004123152171604</v>
+        <v>1.002436501829993</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4075273672161856</v>
+        <v>0.1560474289132822</v>
       </c>
       <c r="P2" t="n">
-        <v>317.7573519768523</v>
+        <v>121.5971443636598</v>
       </c>
       <c r="Q2" t="n">
-        <v>509.1208564811598</v>
+        <v>191.0730663811472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_23</t>
+          <t>model_18_9_14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9775265588837291</v>
+        <v>0.9965392315965217</v>
       </c>
       <c r="C3" t="n">
-        <v>0.799408660377413</v>
+        <v>0.8105877454976244</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7605174604262596</v>
+        <v>0.9758404745398791</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8360667240865562</v>
+        <v>0.9499078820362672</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8225307791579513</v>
+        <v>0.9785047691337156</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1502800042251848</v>
+        <v>0.02314217424943252</v>
       </c>
       <c r="H3" t="n">
-        <v>1.34135521169443</v>
+        <v>1.266600618020622</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2424837467044942</v>
+        <v>0.04327946280770607</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6865436140876048</v>
+        <v>0.07484653357114612</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4645136803960495</v>
+        <v>0.05906299888663452</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1784920833110724</v>
+        <v>0.6605024347951667</v>
       </c>
       <c r="M3" t="n">
-        <v>0.387659649983313</v>
+        <v>0.1521255213612513</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004055357795417</v>
+        <v>1.002516922475257</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4041631238492061</v>
+        <v>0.1586018197488416</v>
       </c>
       <c r="P3" t="n">
-        <v>317.7905100603219</v>
+        <v>121.532197201962</v>
       </c>
       <c r="Q3" t="n">
-        <v>509.1540145646294</v>
+        <v>191.0081192194494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_22</t>
+          <t>model_18_9_12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9779335292140882</v>
+        <v>0.9967534312184625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7993651253664104</v>
+        <v>0.8105814040444427</v>
       </c>
       <c r="D4" t="n">
-        <v>0.767712729099308</v>
+        <v>0.9792090457580839</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8389612387826195</v>
+        <v>0.9559064383514264</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8262381356657416</v>
+        <v>0.9812337626984686</v>
       </c>
       <c r="G4" t="n">
-        <v>0.147558591752148</v>
+        <v>0.0217098203912163</v>
       </c>
       <c r="H4" t="n">
-        <v>1.341646330513464</v>
+        <v>1.266643023347248</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2351983065655523</v>
+        <v>0.03724499193227224</v>
       </c>
       <c r="J4" t="n">
-        <v>0.674421544487079</v>
+        <v>0.06588362353915198</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4548099255263156</v>
+        <v>0.05156447305644869</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1803804337139962</v>
+        <v>0.634341414501866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3841335597837658</v>
+        <v>0.1473425274359589</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003981919540315</v>
+        <v>1.002361140932027</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4004869206898511</v>
+        <v>0.1536152038699872</v>
       </c>
       <c r="P4" t="n">
-        <v>317.8270598997203</v>
+        <v>121.6599811364323</v>
       </c>
       <c r="Q4" t="n">
-        <v>509.1905644040278</v>
+        <v>191.1359031539197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_21</t>
+          <t>model_18_9_15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9783725905439924</v>
+        <v>0.9964232452801631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7993032400737053</v>
+        <v>0.8105731658314104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7755625010193505</v>
+        <v>0.974167910568732</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8421522531351759</v>
+        <v>0.9469371765929261</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8303092895213143</v>
+        <v>0.977151816064692</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1446225866173867</v>
+        <v>0.02391777528099041</v>
       </c>
       <c r="H5" t="n">
-        <v>1.342060157750739</v>
+        <v>1.266698112315729</v>
       </c>
       <c r="I5" t="n">
-        <v>0.22725016091228</v>
+        <v>0.04627570006005851</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6610577505044208</v>
+        <v>0.07928529587015695</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4441539557083504</v>
+        <v>0.06278054284354778</v>
       </c>
       <c r="L5" t="n">
-        <v>0.182473664297274</v>
+        <v>0.672848947047892</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3802927643505549</v>
+        <v>0.1546537270193978</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003902690428152</v>
+        <v>1.002601276159881</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3964826146435058</v>
+        <v>0.1612376563559626</v>
       </c>
       <c r="P5" t="n">
-        <v>317.8672555615641</v>
+        <v>121.4662667217453</v>
       </c>
       <c r="Q5" t="n">
-        <v>509.2307600658716</v>
+        <v>190.9421887392327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_20</t>
+          <t>model_18_9_11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.978844412938671</v>
+        <v>0.9968485317273938</v>
       </c>
       <c r="C6" t="n">
-        <v>0.799217780646162</v>
+        <v>0.8105567284923267</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7841079392329875</v>
+        <v>0.9808897994134375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8456679133560098</v>
+        <v>0.9589078398331869</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8347747197746473</v>
+        <v>0.9825977660732443</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1414675080916287</v>
+        <v>0.02107388285009471</v>
       </c>
       <c r="H6" t="n">
-        <v>1.342631625336225</v>
+        <v>1.266808028877867</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2185976308407237</v>
+        <v>0.03423408364949718</v>
       </c>
       <c r="J6" t="n">
-        <v>0.646334357340548</v>
+        <v>0.06139899589917634</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4324659940906359</v>
+        <v>0.04781656589011517</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1847933814490913</v>
+        <v>0.6205150998935965</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3761216666075336</v>
+        <v>0.1451684636899306</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003817549544902</v>
+        <v>1.002291976925532</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3921339446342015</v>
+        <v>0.1513485857293581</v>
       </c>
       <c r="P6" t="n">
-        <v>317.9113704261216</v>
+        <v>121.7194415695968</v>
       </c>
       <c r="Q6" t="n">
-        <v>509.2748749304291</v>
+        <v>191.1953635870842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_19</t>
+          <t>model_18_9_16</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9793487010285378</v>
+        <v>0.9963030787259525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7991020420554578</v>
+        <v>0.8105490231576579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7933836961714993</v>
+        <v>0.9725120651377506</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8495360286473743</v>
+        <v>0.9439992331902063</v>
       </c>
       <c r="F7" t="n">
-        <v>0.839663376575804</v>
+        <v>0.975813145602266</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1380953313126564</v>
+        <v>0.02472132958231279</v>
       </c>
       <c r="H7" t="n">
-        <v>1.343405569825192</v>
+        <v>1.266859554486278</v>
       </c>
       <c r="I7" t="n">
-        <v>0.209205629653606</v>
+        <v>0.04924198765803962</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6301349015739036</v>
+        <v>0.08367510585345621</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4196702656137549</v>
+        <v>0.06645884211484594</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1873643759549949</v>
+        <v>0.6847149040726008</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3716118019017378</v>
+        <v>0.1572301802527517</v>
       </c>
       <c r="N7" t="n">
-        <v>1.003726550190339</v>
+        <v>1.002688670017489</v>
       </c>
       <c r="O7" t="n">
-        <v>0.387432085651173</v>
+        <v>0.1639237945374538</v>
       </c>
       <c r="P7" t="n">
-        <v>317.9596220514171</v>
+        <v>121.4001777242936</v>
       </c>
       <c r="Q7" t="n">
-        <v>509.3231265557246</v>
+        <v>190.876099741781</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_18</t>
+          <t>model_18_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9798844206591035</v>
+        <v>0.9961798956575615</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7989477175002342</v>
+        <v>0.8105167292911303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8034193412500106</v>
+        <v>0.9708774153798589</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8537872159673029</v>
+        <v>0.94110284855521</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8450054731468846</v>
+        <v>0.9744928817357481</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1345129716763012</v>
+        <v>0.02554505532784943</v>
       </c>
       <c r="H8" t="n">
-        <v>1.344437538836571</v>
+        <v>1.267075503720448</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1990442173704169</v>
+        <v>0.05217030524925551</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6123311610549367</v>
+        <v>0.08800281964617619</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4056876892126768</v>
+        <v>0.07008656510899706</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1902141320039013</v>
+        <v>0.6961122525930591</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3667601009874182</v>
+        <v>0.1598282056704931</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003629878978808</v>
+        <v>1.002778257703592</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3823738377845253</v>
+        <v>0.1666324232758825</v>
       </c>
       <c r="P8" t="n">
-        <v>318.0121892818013</v>
+        <v>121.3346230206086</v>
       </c>
       <c r="Q8" t="n">
-        <v>509.3756937861089</v>
+        <v>190.810545038096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_17</t>
+          <t>model_18_9_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9804491347531897</v>
+        <v>0.9969332338245296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7987442754220855</v>
+        <v>0.810514718455901</v>
       </c>
       <c r="D9" t="n">
-        <v>0.814236364014125</v>
+        <v>0.9825560723214424</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8584514719113747</v>
+        <v>0.9618903790898551</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8508291799344432</v>
+        <v>0.9839519616023434</v>
       </c>
       <c r="G9" t="n">
-        <v>0.130736725928877</v>
+        <v>0.02050747953653066</v>
       </c>
       <c r="H9" t="n">
-        <v>1.345797956949916</v>
+        <v>1.267088950184886</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1880916351374953</v>
+        <v>0.0312491162308066</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5927975116782022</v>
+        <v>0.05694255177830503</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3904445306491759</v>
+        <v>0.0440956079936861</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1933657845571035</v>
+        <v>0.6061873259089815</v>
       </c>
       <c r="M9" t="n">
-        <v>0.361575339215601</v>
+        <v>0.1432043279252783</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003527975683635</v>
+        <v>1.002230375400342</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3769683499701455</v>
+        <v>0.149300832638883</v>
       </c>
       <c r="P9" t="n">
-        <v>318.0691394074467</v>
+        <v>121.7739312078816</v>
       </c>
       <c r="Q9" t="n">
-        <v>509.4326439117542</v>
+        <v>191.2498532253691</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_16</t>
+          <t>model_18_9_18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9810389849154071</v>
+        <v>0.9960546935233876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7984785736149757</v>
+        <v>0.8104775820648995</v>
       </c>
       <c r="D10" t="n">
-        <v>0.82584281469127</v>
+        <v>0.9692696657523964</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8635614650694766</v>
+        <v>0.9382557284652601</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8571621402188964</v>
+        <v>0.9731947151295031</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1267923951781192</v>
+        <v>0.02638228257557313</v>
       </c>
       <c r="H10" t="n">
-        <v>1.347574706157504</v>
+        <v>1.267337281402509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1763397318415624</v>
+        <v>0.05505043384783767</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5713971391718995</v>
+        <v>0.09225692344645484</v>
       </c>
       <c r="K10" t="n">
-        <v>0.373868435506731</v>
+        <v>0.07365357089257216</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1968527194693401</v>
+        <v>0.7070502618587436</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3560791979014208</v>
+        <v>0.1624262373373623</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003421536556618</v>
+        <v>1.002869313801173</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3712382265416397</v>
+        <v>0.1693410585294772</v>
       </c>
       <c r="P10" t="n">
-        <v>318.1304084274271</v>
+        <v>121.2701252173793</v>
       </c>
       <c r="Q10" t="n">
-        <v>509.4939129317346</v>
+        <v>190.7460472348668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_15</t>
+          <t>model_18_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9816475831781022</v>
+        <v>0.997005387244948</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7981341033200394</v>
+        <v>0.8104529836683574</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8382290556262946</v>
+        <v>0.9841968095569168</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8691468984500331</v>
+        <v>0.9648360474042537</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8640263015962568</v>
+        <v>0.9852875997952666</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1227226957931399</v>
+        <v>0.02002498928195616</v>
       </c>
       <c r="H11" t="n">
-        <v>1.349878180605882</v>
+        <v>1.267501770993452</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1637982659173441</v>
+        <v>0.0283098935098493</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5480056489575669</v>
+        <v>0.05254119940301269</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3559019574374555</v>
+        <v>0.04042564056731621</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2007161888501417</v>
+        <v>0.591365201352209</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3503179923913985</v>
+        <v>0.1415096791104982</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003311714313726</v>
+        <v>1.002177900185492</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3652317545857162</v>
+        <v>0.147534039115651</v>
       </c>
       <c r="P11" t="n">
-        <v>318.1956559491617</v>
+        <v>121.821548642522</v>
       </c>
       <c r="Q11" t="n">
-        <v>509.5591604534692</v>
+        <v>191.2974706600094</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_14</t>
+          <t>model_18_9_19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.982266271715469</v>
+        <v>0.9959283287474281</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7976900481966496</v>
+        <v>0.8104327214530225</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8513644203876486</v>
+        <v>0.9676918191311686</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8752404006151538</v>
+        <v>0.9354645109730725</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8714418193869405</v>
+        <v>0.9719215073575629</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1185855226949693</v>
+        <v>0.02722728441427047</v>
       </c>
       <c r="H12" t="n">
-        <v>1.352847579260676</v>
+        <v>1.267637264520695</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1504982881096402</v>
+        <v>0.05787699409101847</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5224863943975501</v>
+        <v>0.09642749882289708</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3364923412535952</v>
+        <v>0.0771519966449799</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2049852361740476</v>
+        <v>0.7175378957050169</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3443624873515832</v>
+        <v>0.1650069223222786</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003200071269389</v>
+        <v>1.002961215456416</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3590227113667609</v>
+        <v>0.1720316086169558</v>
       </c>
       <c r="P12" t="n">
-        <v>318.2642417364173</v>
+        <v>121.2070714099729</v>
       </c>
       <c r="Q12" t="n">
-        <v>509.6277462407248</v>
+        <v>190.6829934274603</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_13</t>
+          <t>model_18_9_20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9828821195029138</v>
+        <v>0.9958015421177245</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7971205456330533</v>
+        <v>0.8103831296197331</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8651830778208226</v>
+        <v>0.9661473986686363</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8818675693058855</v>
+        <v>0.9327340777564896</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8794164389274834</v>
+        <v>0.9706755640057049</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1144673457046076</v>
+        <v>0.02807510719089675</v>
       </c>
       <c r="H13" t="n">
-        <v>1.356655845525762</v>
+        <v>1.26796888533825</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1365064545722721</v>
+        <v>0.06064367459051585</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4947321735491519</v>
+        <v>0.1005072516805563</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3156193140607121</v>
+        <v>0.08057550724886102</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2097068598978851</v>
+        <v>0.7275969532618336</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3383302317331509</v>
+        <v>0.1675562806668158</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00308894084158</v>
+        <v>1.003053423914382</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3527336501381614</v>
+        <v>0.1746894984241193</v>
       </c>
       <c r="P13" t="n">
-        <v>318.3349313740302</v>
+        <v>121.1457439206909</v>
       </c>
       <c r="Q13" t="n">
-        <v>509.6984358783378</v>
+        <v>190.6216659381783</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_12</t>
+          <t>model_18_9_8</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9834777865812343</v>
+        <v>0.9970627564069963</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7963928822339202</v>
+        <v>0.8103686177625691</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8795806416175116</v>
+        <v>0.9858003889413109</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8890511494957545</v>
+        <v>0.9677247517642037</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8879482497961729</v>
+        <v>0.9865957812597399</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1104841172090838</v>
+        <v>0.01964136143117945</v>
       </c>
       <c r="H14" t="n">
-        <v>1.361521734026347</v>
+        <v>1.268065926193927</v>
       </c>
       <c r="I14" t="n">
-        <v>0.121928459787967</v>
+        <v>0.02543723550004473</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4646477317043813</v>
+        <v>0.04822496130721778</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2932878762584059</v>
+        <v>0.03683111670012213</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2149198062219647</v>
+        <v>0.576044783609774</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3323915119389841</v>
+        <v>0.1401476415469752</v>
       </c>
       <c r="N14" t="n">
-        <v>1.002981452045492</v>
+        <v>1.002136177158548</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3465421067475122</v>
+        <v>0.1461140167932424</v>
       </c>
       <c r="P14" t="n">
-        <v>318.4057670080394</v>
+        <v>121.8602353183036</v>
       </c>
       <c r="Q14" t="n">
-        <v>509.7692715123469</v>
+        <v>191.336157335791</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_11</t>
+          <t>model_18_9_21</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9840300123472511</v>
+        <v>0.9956750297041802</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7954660892584923</v>
+        <v>0.8103297530373207</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8943987852525251</v>
+        <v>0.9646385977896219</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8968086418922708</v>
+        <v>0.930069355906137</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8970204392654793</v>
+        <v>0.9694591615587465</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1067913809689638</v>
+        <v>0.02892109628280385</v>
       </c>
       <c r="H15" t="n">
-        <v>1.367719202920523</v>
+        <v>1.268325814790619</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1069246144378259</v>
+        <v>0.06334654603703195</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4321597768551564</v>
+        <v>0.1044888200697104</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2695420340236644</v>
+        <v>0.08391784754831315</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2206809419258748</v>
+        <v>0.737221668073569</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3267895055979672</v>
+        <v>0.1700620365713755</v>
       </c>
       <c r="N15" t="n">
-        <v>1.002881802283203</v>
+        <v>1.003145432942414</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3407016113988064</v>
+        <v>0.1773019295451659</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4737561165009</v>
+        <v>121.0863679499651</v>
       </c>
       <c r="Q15" t="n">
-        <v>509.8372606208084</v>
+        <v>190.5622899674525</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_10</t>
+          <t>model_18_9_22</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9845073875421899</v>
+        <v>0.995549356906692</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7942888662841974</v>
+        <v>0.8102733563350721</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9094081955368478</v>
+        <v>0.9631683035741042</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9051429804441862</v>
+        <v>0.9274728822689366</v>
       </c>
       <c r="F16" t="n">
-        <v>0.906591066892106</v>
+        <v>0.9682739870859398</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1035991708422971</v>
+        <v>0.02976147085827742</v>
       </c>
       <c r="H16" t="n">
-        <v>1.375591298370247</v>
+        <v>1.268702939798238</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09172710547518671</v>
+        <v>0.06598043650486909</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3972560217842045</v>
+        <v>0.1083684134898572</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2444915636296956</v>
+        <v>0.08717438193974594</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2270366763498984</v>
+        <v>0.7464400741126431</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3218682507522249</v>
+        <v>0.1725151322588179</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002795659390883</v>
+        <v>1.003236831340588</v>
       </c>
       <c r="O16" t="n">
-        <v>0.335570848545879</v>
+        <v>0.1798594585946308</v>
       </c>
       <c r="P16" t="n">
-        <v>318.534451905283</v>
+        <v>121.0290812924746</v>
       </c>
       <c r="Q16" t="n">
-        <v>509.8979564095906</v>
+        <v>190.505003309962</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_9</t>
+          <t>model_18_9_7</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9848690784286719</v>
+        <v>0.9971026322201757</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7927965269431791</v>
+        <v>0.8102586084901616</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9242929145693878</v>
+        <v>0.9873526533715959</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9140452621800337</v>
+        <v>0.9705333533293303</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9165920176247038</v>
+        <v>0.9878654709343029</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1011805422189586</v>
+        <v>0.01937471168483721</v>
       </c>
       <c r="H17" t="n">
-        <v>1.385570578415226</v>
+        <v>1.268801558705062</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07665585040131677</v>
+        <v>0.02265650328785222</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3599737516502151</v>
+        <v>0.04402841103389088</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2183147516156663</v>
+        <v>0.03334235771439246</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2340425133153834</v>
+        <v>0.5602435461960468</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3180888904362405</v>
+        <v>0.1391930734082598</v>
       </c>
       <c r="N17" t="n">
-        <v>1.002730391862495</v>
+        <v>1.002107176567145</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3316305930368887</v>
+        <v>0.1451188107126335</v>
       </c>
       <c r="P17" t="n">
-        <v>318.5816976223576</v>
+        <v>121.8875731692721</v>
       </c>
       <c r="Q17" t="n">
-        <v>509.9452021266651</v>
+        <v>191.3634951867595</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_8</t>
+          <t>model_18_9_23</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9850614155773582</v>
+        <v>0.995424944978907</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7909079300631191</v>
+        <v>0.8102146118792872</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9386228445442462</v>
+        <v>0.9617370570136533</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9234825786962361</v>
+        <v>0.9249477524600339</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9269136561336389</v>
+        <v>0.9671207861520342</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09989438282006269</v>
+        <v>0.03059341399224046</v>
       </c>
       <c r="H18" t="n">
-        <v>1.398199634448377</v>
+        <v>1.269095764244565</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06214633702927088</v>
+        <v>0.06854437685973828</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3204507850516391</v>
+        <v>0.1121414065413864</v>
       </c>
       <c r="K18" t="n">
-        <v>0.191298561040455</v>
+        <v>0.09034306181571626</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2417665678474372</v>
+        <v>0.7552592267331956</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3160607264752499</v>
+        <v>0.1749097309821282</v>
       </c>
       <c r="N18" t="n">
-        <v>1.002695684407093</v>
+        <v>1.003327312742613</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3295160859372004</v>
+        <v>0.1823560003430952</v>
       </c>
       <c r="P18" t="n">
-        <v>318.6072836458717</v>
+        <v>120.9739410444013</v>
       </c>
       <c r="Q18" t="n">
-        <v>509.9707881501793</v>
+        <v>190.4498630618887</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_7</t>
+          <t>model_18_9_24</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9850148540149343</v>
+        <v>0.9953022268874487</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7885208346029751</v>
+        <v>0.8101541158843675</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9518260211306078</v>
+        <v>0.9603464041384494</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9333915855180033</v>
+        <v>0.9224949404619728</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9373947682193989</v>
+        <v>0.9660006666006908</v>
       </c>
       <c r="G19" t="n">
-        <v>0.100205740202387</v>
+        <v>0.03141403043488677</v>
       </c>
       <c r="H19" t="n">
-        <v>1.414162152781924</v>
+        <v>1.269500301241152</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04877769757538612</v>
+        <v>0.0710355975374856</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2789524051923436</v>
+        <v>0.1158063439211456</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1638649591657216</v>
+        <v>0.09342084312569326</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2502778792766219</v>
+        <v>0.7637020203855038</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3165529026914569</v>
+        <v>0.1772400362076435</v>
       </c>
       <c r="N19" t="n">
-        <v>1.002704086493546</v>
+        <v>1.003416562263674</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3300292151138767</v>
+        <v>0.1847855114864575</v>
       </c>
       <c r="P19" t="n">
-        <v>318.6010596090465</v>
+        <v>120.9210013134596</v>
       </c>
       <c r="Q19" t="n">
-        <v>509.964564113354</v>
+        <v>190.3969233309471</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9846397450804083</v>
+        <v>0.9971221851802489</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7855064650831413</v>
+        <v>0.8101195666964252</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9631482483695242</v>
+        <v>0.9888385405479932</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9436690602126951</v>
+        <v>0.9732373019069294</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9478068061541574</v>
+        <v>0.9890849748189917</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1027140953747802</v>
+        <v>0.01924396095079473</v>
       </c>
       <c r="H20" t="n">
-        <v>1.434319255640948</v>
+        <v>1.269731331820006</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03731357961998608</v>
+        <v>0.01999467953251867</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2359109019876299</v>
+        <v>0.03998823093740465</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1366121542086157</v>
+        <v>0.02999149551469408</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2596461449606102</v>
+        <v>0.5439643407311988</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3204903982567656</v>
+        <v>0.1387226043253035</v>
       </c>
       <c r="N20" t="n">
-        <v>1.002771775323836</v>
+        <v>1.002092956232546</v>
       </c>
       <c r="O20" t="n">
-        <v>0.33413433801714</v>
+        <v>0.1446283127868105</v>
       </c>
       <c r="P20" t="n">
-        <v>318.5516118468297</v>
+        <v>121.9011159686192</v>
       </c>
       <c r="Q20" t="n">
-        <v>509.9151163511372</v>
+        <v>191.3770379861066</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.983820686461312</v>
+        <v>0.9971181670282211</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7817024518952207</v>
+        <v>0.8099476839269765</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9716033563864619</v>
+        <v>0.9902412618509765</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9541545790416709</v>
+        <v>0.9758073857824764</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9578306899188836</v>
+        <v>0.9902409762963744</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1081911441320952</v>
+        <v>0.01927083035190641</v>
       </c>
       <c r="H21" t="n">
-        <v>1.459756709344443</v>
+        <v>1.270880712690757</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02875251176765953</v>
+        <v>0.01748183942884006</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1919981213009951</v>
+        <v>0.03614806851482425</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1103753165343273</v>
+        <v>0.02681512051335846</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2699507028141398</v>
+        <v>0.5272381417584484</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3289242224769942</v>
+        <v>0.1388194163361394</v>
       </c>
       <c r="N21" t="n">
-        <v>1.002919575375402</v>
+        <v>1.00209587852493</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3429272075948467</v>
+        <v>0.1447292462853761</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4477115262548</v>
+        <v>121.898325414179</v>
       </c>
       <c r="Q21" t="n">
-        <v>509.8112160305623</v>
+        <v>191.3742474316664</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9824099977961362</v>
+        <v>0.9970869939439687</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7769041691710982</v>
+        <v>0.8097388660966869</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9759149968801977</v>
+        <v>0.9915415711458146</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9646144401999206</v>
+        <v>0.978212431050002</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9670327077919109</v>
+        <v>0.9913188268719327</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1176244257317496</v>
+        <v>0.01947928490984044</v>
       </c>
       <c r="H22" t="n">
-        <v>1.49184284801471</v>
+        <v>1.272277078483421</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02438683758020197</v>
+        <v>0.01515246057339195</v>
       </c>
       <c r="J22" t="n">
-        <v>0.148192793539285</v>
+        <v>0.03255450312622728</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08628965723527385</v>
+        <v>0.02385348275565406</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2869731391977559</v>
+        <v>0.510076807478779</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3429641755807005</v>
+        <v>0.1395682088078816</v>
       </c>
       <c r="N22" t="n">
-        <v>1.003174135736036</v>
+        <v>1.002118549858932</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3575648705688874</v>
+        <v>0.1455099164028544</v>
       </c>
       <c r="P22" t="n">
-        <v>318.2805171265681</v>
+        <v>121.8768073807639</v>
       </c>
       <c r="Q22" t="n">
-        <v>509.6440216308756</v>
+        <v>191.3527293982513</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.980218982280388</v>
+        <v>0.997024705866685</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7708536263930112</v>
+        <v>0.8094885386593688</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9744319573617088</v>
+        <v>0.9927188164049192</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9747181328192575</v>
+        <v>0.9804185008699939</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9748288541961482</v>
+        <v>0.9923023816977352</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1322757565742574</v>
+        <v>0.01989580556944746</v>
       </c>
       <c r="H23" t="n">
-        <v>1.532302855431966</v>
+        <v>1.27395101920942</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02588846262390696</v>
+        <v>0.01304353908438898</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1058790801832955</v>
+        <v>0.02925824244581727</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06588377140360126</v>
+        <v>0.02115094385562155</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3061018615579815</v>
+        <v>0.4925233785772338</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3636973419950404</v>
+        <v>0.1410524922482671</v>
       </c>
       <c r="N23" t="n">
-        <v>1.003569506956922</v>
+        <v>1.002163850278775</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3791806908010569</v>
+        <v>0.1470573888621875</v>
       </c>
       <c r="P23" t="n">
-        <v>318.0457329410024</v>
+        <v>121.8344926897452</v>
       </c>
       <c r="Q23" t="n">
-        <v>509.4092374453099</v>
+        <v>191.3104147072326</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9770073244542755</v>
+        <v>0.9969269485316756</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7632257453457392</v>
+        <v>0.8091917315306681</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9650184835359756</v>
+        <v>0.9937497509687674</v>
       </c>
       <c r="E24" t="n">
-        <v>0.984011300262901</v>
+        <v>0.982387225827796</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9804427057127796</v>
+        <v>0.9931737322650681</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1537521272457957</v>
+        <v>0.02054950931878619</v>
       </c>
       <c r="H24" t="n">
-        <v>1.583310531118236</v>
+        <v>1.275935769845712</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0354199065731458</v>
+        <v>0.01119671911323946</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06695980203473317</v>
+        <v>0.02631661720343531</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05118989481579397</v>
+        <v>0.01875671148340851</v>
       </c>
       <c r="L24" t="n">
-        <v>0.327175195666614</v>
+        <v>0.4746089687689177</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3921123910893351</v>
+        <v>0.1433510004108314</v>
       </c>
       <c r="N24" t="n">
-        <v>1.004149054233815</v>
+        <v>1.002234946522418</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4088054273625563</v>
+        <v>0.1494537492758</v>
       </c>
       <c r="P24" t="n">
-        <v>317.7448270732924</v>
+        <v>121.7698364315126</v>
       </c>
       <c r="Q24" t="n">
-        <v>509.1083315775999</v>
+        <v>191.245758449</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9724696310042142</v>
+        <v>0.9967889512687224</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7536123361193217</v>
+        <v>0.8088430103661259</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9449132419434323</v>
+        <v>0.9946092762986221</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9918852557814799</v>
+        <v>0.9840774001768813</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9828531614444749</v>
+        <v>0.9939135008311663</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1840957042405126</v>
+        <v>0.02147229765157319</v>
       </c>
       <c r="H25" t="n">
-        <v>1.64759544288097</v>
+        <v>1.278267669878719</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05577710805612815</v>
+        <v>0.009656962274590866</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03398410598541842</v>
+        <v>0.02379119611320523</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04488068999679013</v>
+        <v>0.01672403036136685</v>
       </c>
       <c r="L25" t="n">
-        <v>0.350390714762743</v>
+        <v>0.4563942477296511</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4290637531189422</v>
+        <v>0.1465342883135998</v>
       </c>
       <c r="N25" t="n">
-        <v>1.004967886134578</v>
+        <v>1.002335308168202</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4473298853736282</v>
+        <v>0.1527725563349036</v>
       </c>
       <c r="P25" t="n">
-        <v>317.3845990497057</v>
+        <v>121.681983311953</v>
       </c>
       <c r="Q25" t="n">
-        <v>508.7481035540133</v>
+        <v>191.1579053294404</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9662194930390073</v>
+        <v>0.9966054173589985</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7415015538349481</v>
+        <v>0.8084364479870274</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9105262739360875</v>
+        <v>0.9952695461849034</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9975443579411083</v>
+        <v>0.9854444637712864</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9807293758579695</v>
+        <v>0.9945004179285987</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2258904055930898</v>
+        <v>0.02269958975099234</v>
       </c>
       <c r="H26" t="n">
-        <v>1.7285802997816</v>
+        <v>1.280986354379798</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09059501526168068</v>
+        <v>0.008474152370748608</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01028409494425783</v>
+        <v>0.02174855995861883</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05043955510296926</v>
+        <v>0.01511134315238366</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3759586656125321</v>
+        <v>0.4379334140795146</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4752792921989026</v>
+        <v>0.1506638302678926</v>
       </c>
       <c r="N26" t="n">
-        <v>1.006095730579427</v>
+        <v>1.002468787375274</v>
       </c>
       <c r="O26" t="n">
-        <v>0.495512915631577</v>
+        <v>0.1570779014395209</v>
       </c>
       <c r="P26" t="n">
-        <v>316.9754106566619</v>
+        <v>121.5708168546032</v>
       </c>
       <c r="Q26" t="n">
-        <v>508.3389151609694</v>
+        <v>191.0467388720906</v>
       </c>
     </row>
   </sheetData>
